--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Cntn1-Ptprz1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Cntn1-Ptprz1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,16 +79,16 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Cntn1</t>
+  </si>
+  <si>
+    <t>Ptprz1</t>
+  </si>
+  <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Cntn1</t>
-  </si>
-  <si>
-    <t>Ptprz1</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,13 +519,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
         <v>22</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>23</v>
-      </c>
-      <c r="D2" t="s">
-        <v>24</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -540,40 +540,40 @@
         <v>0.143837</v>
       </c>
       <c r="I2">
-        <v>0.7776276024631154</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>0.7776276024631155</v>
+        <v>1</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.01848533333333334</v>
+        <v>0.04936366666666667</v>
       </c>
       <c r="N2">
-        <v>0.05545600000000001</v>
+        <v>0.148091</v>
       </c>
       <c r="O2">
-        <v>0.002735469863414935</v>
+        <v>0.04616170608573571</v>
       </c>
       <c r="P2">
-        <v>0.002735469863414935</v>
+        <v>0.0461617060857357</v>
       </c>
       <c r="Q2">
-        <v>0.0008862916302222223</v>
+        <v>0.002366773907444444</v>
       </c>
       <c r="R2">
-        <v>0.007976624672000001</v>
+        <v>0.021300965167</v>
       </c>
       <c r="S2">
-        <v>0.002127176871497462</v>
+        <v>0.04616170608573571</v>
       </c>
       <c r="T2">
-        <v>0.002127176871497462</v>
+        <v>0.0461617060857357</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,10 +581,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
         <v>22</v>
-      </c>
-      <c r="C3" t="s">
-        <v>23</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
@@ -602,10 +602,10 @@
         <v>0.143837</v>
       </c>
       <c r="I3">
-        <v>0.7776276024631154</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>0.7776276024631155</v>
+        <v>1</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -620,10 +620,10 @@
         <v>0.02585</v>
       </c>
       <c r="O3">
-        <v>0.001275099105043207</v>
+        <v>0.008057748967298944</v>
       </c>
       <c r="P3">
-        <v>0.001275099105043207</v>
+        <v>0.008057748967298944</v>
       </c>
       <c r="Q3">
         <v>0.0004131318277777778</v>
@@ -632,10 +632,10 @@
         <v>0.00371818645</v>
       </c>
       <c r="S3">
-        <v>0.0009915522599576129</v>
+        <v>0.008057748967298944</v>
       </c>
       <c r="T3">
-        <v>0.0009915522599576131</v>
+        <v>0.008057748967298944</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,13 +643,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -664,10 +664,10 @@
         <v>0.143837</v>
       </c>
       <c r="I4">
-        <v>0.7776276024631154</v>
+        <v>1</v>
       </c>
       <c r="J4">
-        <v>0.7776276024631155</v>
+        <v>1</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,214 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>6.730542666666667</v>
+        <v>1.011383666666666</v>
       </c>
       <c r="N4">
-        <v>20.191628</v>
+        <v>3.034151</v>
       </c>
       <c r="O4">
-        <v>0.9959894310315418</v>
+        <v>0.9457805449469654</v>
       </c>
       <c r="P4">
-        <v>0.9959894310315418</v>
+        <v>0.9457805449469653</v>
       </c>
       <c r="Q4">
-        <v>0.3227003551817778</v>
+        <v>0.0484914641541111</v>
       </c>
       <c r="R4">
-        <v>2.904303196636</v>
+        <v>0.4364231773869999</v>
       </c>
       <c r="S4">
-        <v>0.7745088733316602</v>
+        <v>0.9457805449469654</v>
       </c>
       <c r="T4">
-        <v>0.7745088733316603</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20">
-      <c r="A5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G5">
-        <v>0.01371066666666667</v>
-      </c>
-      <c r="H5">
-        <v>0.041132</v>
-      </c>
-      <c r="I5">
-        <v>0.2223723975368846</v>
-      </c>
-      <c r="J5">
-        <v>0.2223723975368846</v>
-      </c>
-      <c r="K5">
-        <v>2</v>
-      </c>
-      <c r="L5">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M5">
-        <v>0.01848533333333334</v>
-      </c>
-      <c r="N5">
-        <v>0.05545600000000001</v>
-      </c>
-      <c r="O5">
-        <v>0.002735469863414935</v>
-      </c>
-      <c r="P5">
-        <v>0.002735469863414935</v>
-      </c>
-      <c r="Q5">
-        <v>0.0002534462435555556</v>
-      </c>
-      <c r="R5">
-        <v>0.002281016192</v>
-      </c>
-      <c r="S5">
-        <v>0.0006082929919174734</v>
-      </c>
-      <c r="T5">
-        <v>0.0006082929919174734</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G6">
-        <v>0.01371066666666667</v>
-      </c>
-      <c r="H6">
-        <v>0.041132</v>
-      </c>
-      <c r="I6">
-        <v>0.2223723975368846</v>
-      </c>
-      <c r="J6">
-        <v>0.2223723975368846</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M6">
-        <v>0.008616666666666667</v>
-      </c>
-      <c r="N6">
-        <v>0.02585</v>
-      </c>
-      <c r="O6">
-        <v>0.001275099105043207</v>
-      </c>
-      <c r="P6">
-        <v>0.001275099105043207</v>
-      </c>
-      <c r="Q6">
-        <v>0.0001181402444444445</v>
-      </c>
-      <c r="R6">
-        <v>0.0010632622</v>
-      </c>
-      <c r="S6">
-        <v>0.0002835468450855937</v>
-      </c>
-      <c r="T6">
-        <v>0.0002835468450855937</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G7">
-        <v>0.01371066666666667</v>
-      </c>
-      <c r="H7">
-        <v>0.041132</v>
-      </c>
-      <c r="I7">
-        <v>0.2223723975368846</v>
-      </c>
-      <c r="J7">
-        <v>0.2223723975368846</v>
-      </c>
-      <c r="K7">
-        <v>3</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>6.730542666666667</v>
-      </c>
-      <c r="N7">
-        <v>20.191628</v>
-      </c>
-      <c r="O7">
-        <v>0.9959894310315418</v>
-      </c>
-      <c r="P7">
-        <v>0.9959894310315418</v>
-      </c>
-      <c r="Q7">
-        <v>0.09228022698844446</v>
-      </c>
-      <c r="R7">
-        <v>0.8305220428960001</v>
-      </c>
-      <c r="S7">
-        <v>0.2214805576998815</v>
-      </c>
-      <c r="T7">
-        <v>0.2214805576998815</v>
+        <v>0.9457805449469653</v>
       </c>
     </row>
   </sheetData>
